--- a/medicine/Mort/Cimetière_de_l'Est_de_Reims/Cimetière_de_l'Est_de_Reims.xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_de_Reims/Cimetière_de_l'Est_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Reims</t>
+          <t>Cimetière_de_l'Est_de_Reims</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Est est un cimetière situé à Reims dans le département de la Marne. Il a été ouvert en 1891[1] et se présente sous une forme plutôt rectangulaire avec trois allées principales s'étirant en longueur coupées d'allées secondaires, une allée faisant le tour et une allée semi-circulaire. Il est peu arboré.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Est est un cimetière situé à Reims dans le département de la Marne. Il a été ouvert en 1891 et se présente sous une forme plutôt rectangulaire avec trois allées principales s'étirant en longueur coupées d'allées secondaires, une allée faisant le tour et une allée semi-circulaire. Il est peu arboré.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Reims</t>
+          <t>Cimetière_de_l'Est_de_Reims</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Est a été inauguré en 1891. L'ancien crématorium construit en 1893 et qui fonctionna jusqu'en 1972[2] se trouve près de l'entrée. Le cimetière souffrit de graves dommages pendant la Première Guerre mondiale, la ligne de front se trouvant non loin au nord[1]. Un petite stèle en mémoire des disparus de Mourmelon a été élevée près de la conciergerie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Est a été inauguré en 1891. L'ancien crématorium construit en 1893 et qui fonctionna jusqu'en 1972 se trouve près de l'entrée. Le cimetière souffrit de graves dommages pendant la Première Guerre mondiale, la ligne de front se trouvant non loin au nord. Un petite stèle en mémoire des disparus de Mourmelon a été élevée près de la conciergerie.
 			Monument aux soldats morts.
 			Tombe de Roger Gilbert-Lecomte.
 			Chapelle Barre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Reims</t>
+          <t>Cimetière_de_l'Est_de_Reims</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bernard Fresson (cénotaphe[3]) (1931-2002), acteur
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bernard Fresson (cénotaphe) (1931-2002), acteur
 Roger Gilbert-Lecomte (1907-1943), poète
 Membres de la famille du cirque Grüss
 John Littleton (1930-1998), musicien de gospel
 Abel Robert (1873-1963), architecte
-Michel Robin (1930-2020), sociétaire de la Comédie-Française[4]
+Michel Robin (1930-2020), sociétaire de la Comédie-Française
 Henry Vasnier (1832-1907), négociant en vin et collectionneur d'art</t>
         </is>
       </c>
